--- a/templates/对账单模板.xlsx
+++ b/templates/对账单模板.xlsx
@@ -99,14 +99,6 @@
   </si>
   <si>
     <t>对账单</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>发送单位：&amp;公司名称&amp;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>接收单位：&amp;供应商名称&amp;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -206,26 +198,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>&amp;供应商名称&amp;：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>&amp;序号&amp;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>&amp;单据编号&amp;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;送货日期&amp;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;商品名称&amp;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>&amp;单位&amp;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -242,7 +218,31 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>&amp;备注&amp;</t>
+    <t>发送单位：&amp;公司名称&amp;@times@1@times@</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收单位：&amp;供应商名称&amp;@times@1@times@</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;供应商名称&amp;@times@1@times@：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;物料名称&amp;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;单据号&amp;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;FNote&amp;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;日期&amp;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -250,11 +250,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="[DBNum2][$RMB]General;[Red][DBNum2][$RMB]General"/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -379,6 +380,15 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -533,13 +543,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -682,10 +693,20 @@
     <xf numFmtId="176" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -986,8 +1007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1019,7 +1040,7 @@
     </row>
     <row r="2" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="41" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
@@ -1032,7 +1053,7 @@
     </row>
     <row r="3" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="42" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B3" s="42"/>
       <c r="C3" s="42"/>
@@ -1054,15 +1075,15 @@
       <c r="H4" s="34"/>
     </row>
     <row r="5" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>25</v>
+      <c r="A5" s="48" t="s">
+        <v>30</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
     </row>
     <row r="6" spans="1:9" ht="45.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="43" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B6" s="44"/>
       <c r="C6" s="44"/>
@@ -1078,7 +1099,7 @@
         <v>19</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -1127,31 +1148,31 @@
     </row>
     <row r="10" spans="1:9" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="H10" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" s="23" t="s">
+      <c r="I10" s="22" t="s">
         <v>33</v>
-      </c>
-      <c r="I10" s="22" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1160,7 +1181,7 @@
       <c r="C11" s="23"/>
       <c r="D11" s="23"/>
       <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
+      <c r="F11" s="49"/>
       <c r="G11" s="23"/>
       <c r="H11" s="23"/>
       <c r="I11" s="22"/>
@@ -1173,7 +1194,7 @@
       <c r="C12" s="20"/>
       <c r="D12" s="19"/>
       <c r="E12" s="19"/>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="50" t="s">
         <v>7</v>
       </c>
       <c r="G12" s="18"/>
@@ -1286,9 +1307,12 @@
     <mergeCell ref="A16:B16"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A5" r:id="rId1"/>
+  </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="1.5743055555555601" right="0.30694444444444402" top="0.16111111111111101" bottom="0.35763888888888901" header="0.29861111111111099" footer="0"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId2"/>
   <headerFooter>
     <oddFooter>&amp;C第 &amp;P 页，共 &amp;N 页</oddFooter>
   </headerFooter>
